--- a/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_universitaire_de_La_Réunion/Centre_hospitalier_universitaire_de_La_Réunion.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_universitaire_de_La_Réunion/Centre_hospitalier_universitaire_de_La_Réunion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_universitaire_de_La_R%C3%A9union</t>
+          <t>Centre_hospitalier_universitaire_de_La_Réunion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier universitaire de La Réunion, ou CHU de La Réunion, est le centre hospitalier universitaire de l'île de La Réunion, département d'outre-mer français dans le sud-ouest de l'océan Indien. D'abord créé sous la forme d'un centre hospitalier régional issu de la fusion  par décret, le 22 novembre 2011, du centre hospitalier Félix-Guyon de Saint-Denis et du centre hospitalier Sud Réunion basé à Saint-Pierre, cet établissement est devenu un CHU le 29 février 2012 lors de la signature d'une convention avec l'université de La Réunion.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_universitaire_de_La_R%C3%A9union</t>
+          <t>Centre_hospitalier_universitaire_de_La_Réunion</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Établissements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Centre hospitalier Félix-Guyon
 Centre hospitalier Sud Réunion
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_universitaire_de_La_R%C3%A9union</t>
+          <t>Centre_hospitalier_universitaire_de_La_Réunion</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Rapport d'activité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le CHU en 2019 est une structure de soin très sollicitée avec plus de 141 500 de passages aux urgences[1].
-Le CHU se distingue également par un plateau technique de Haut niveau [2]. On peut citer notamment : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le CHU en 2019 est une structure de soin très sollicitée avec plus de 141 500 de passages aux urgences.
+Le CHU se distingue également par un plateau technique de Haut niveau . On peut citer notamment : 
 80 échographes
 60 générateurs d’hémodialyse
 2 services pharmacotechnie
